--- a/examples/convert/mwtab/Saved Directives/mwtab_ms_conversion_directives.xlsx
+++ b/examples/convert/mwtab/Saved Directives/mwtab_ms_conversion_directives.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\test_convert\testing_files\main_dir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89FDAB-15AA-4E76-9F46-B2AD9798CFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2220" windowWidth="20730" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="124">
   <si>
     <t>#tags</t>
   </si>
@@ -256,7 +250,7 @@
     <t>*#.exclusion_headers</t>
   </si>
   <si>
-    <t>id,intensity,intensity%type,intensity%units,assignment,sample.id,formula,compound,isotopologue,isotopologue%type</t>
+    <t>id,intensity,intensity%type,intensity%units,assignment,entity.id,protocol.id,formula,compound,isotopologue,isotopologue%type</t>
   </si>
   <si>
     <t>intensity%type</t>
@@ -292,9 +286,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>" "</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -304,6 +295,9 @@
     <t>taxonomy_id</t>
   </si>
   <si>
+    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
+  </si>
+  <si>
     <t>#.value_type</t>
   </si>
   <si>
@@ -322,7 +316,7 @@
     <t>*#.headers</t>
   </si>
   <si>
-    <t>"Metabolite"=assignment,sample.id=intensity</t>
+    <t>"Metabolite"=assignment,entity.id=intensity</t>
   </si>
   <si>
     <t>"Metabolite"=assignment,"formula"=formula,"compound"=compound,"isotopologue"=isotopologue,"isotopologue%type"=isotopologue%type</t>
@@ -334,12 +328,21 @@
     <t>#.table</t>
   </si>
   <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>"Metabolite"=assignment,"sample_id"=entity.id</t>
+  </si>
+  <si>
     <t>measurement</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
+    <t>#.for_each</t>
+  </si>
+  <si>
     <t>study</t>
   </si>
   <si>
@@ -349,56 +352,47 @@
     <t>section</t>
   </si>
   <si>
-    <t>protocol</t>
+    <t>#.test</t>
+  </si>
+  <si>
+    <t>machine_type=MS</t>
+  </si>
+  <si>
+    <t>type=collection</t>
   </si>
   <si>
     <t>*#.sort_by</t>
   </si>
   <si>
-    <t>"Metabolite"=assignment,"sample_id"=sample.id</t>
-  </si>
-  <si>
-    <t>#.for_each</t>
-  </si>
-  <si>
-    <t>#.test</t>
-  </si>
-  <si>
     <t>type=subject</t>
   </si>
   <si>
-    <t>type=MS</t>
-  </si>
-  <si>
-    <t>type=collection</t>
-  </si>
-  <si>
     <t>#.sort_order</t>
   </si>
   <si>
     <t>ascending</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>matrix</t>
   </si>
   <si>
+    <t>type=sample_prep</t>
+  </si>
+  <si>
+    <t>type=treatment</t>
+  </si>
+  <si>
     <t>#.values_to_str</t>
-  </si>
-  <si>
-    <t>type=treatment</t>
-  </si>
-  <si>
-    <t>type=sample_prep</t>
-  </si>
-  <si>
-    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +429,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -489,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,27 +507,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,24 +541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,16 +716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -800,7 +748,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -817,13 +765,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -834,16 +782,16 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -854,16 +802,16 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -874,16 +822,16 @@
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -894,16 +842,16 @@
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -920,13 +868,13 @@
         <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -937,16 +885,16 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -957,16 +905,16 @@
         <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -977,16 +925,16 @@
         <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -997,16 +945,16 @@
         <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1053,7 +1001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1026,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1095,13 +1043,13 @@
         <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -1112,16 +1060,16 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -1132,16 +1080,16 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -1152,16 +1100,16 @@
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
         <v>21</v>
       </c>
@@ -1172,16 +1120,16 @@
         <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1192,16 +1140,16 @@
         <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1215,19 +1163,22 @@
         <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
         <v>117</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>103</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -1238,19 +1189,22 @@
         <v>100</v>
       </c>
       <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>118</v>
       </c>
-      <c r="G32" t="s">
-        <v>104</v>
-      </c>
       <c r="H32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1261,19 +1215,22 @@
         <v>101</v>
       </c>
       <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>118</v>
       </c>
-      <c r="G33" t="s">
-        <v>104</v>
-      </c>
       <c r="H33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="I33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1290,22 +1247,25 @@
         <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" t="s">
         <v>117</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>103</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>94</v>
       </c>
-      <c r="J35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -1316,25 +1276,28 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
         <v>76</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>118</v>
       </c>
-      <c r="H36" t="s">
-        <v>104</v>
-      </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1345,13 +1308,16 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
         <v>103</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -1359,13 +1325,16 @@
         <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1376,13 +1345,16 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
         <v>103</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="B42" t="s">
         <v>29</v>
       </c>
@@ -1390,13 +1362,16 @@
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -1404,13 +1379,16 @@
         <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="B44" t="s">
         <v>31</v>
       </c>
@@ -1418,13 +1396,16 @@
         <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="B45" t="s">
         <v>32</v>
       </c>
@@ -1432,13 +1413,16 @@
         <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="B46" t="s">
         <v>33</v>
       </c>
@@ -1446,13 +1430,16 @@
         <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" t="s">
         <v>34</v>
       </c>
@@ -1460,13 +1447,16 @@
         <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="B48" t="s">
         <v>35</v>
       </c>
@@ -1474,13 +1464,16 @@
         <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="B49" t="s">
         <v>36</v>
       </c>
@@ -1488,13 +1481,16 @@
         <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="B50" t="s">
         <v>37</v>
       </c>
@@ -1502,13 +1498,16 @@
         <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1522,13 +1521,13 @@
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
         <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H52" t="s">
         <v>117</v>
@@ -1537,13 +1536,13 @@
         <v>103</v>
       </c>
       <c r="J52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="B53" t="s">
         <v>39</v>
       </c>
@@ -1560,13 +1559,13 @@
         <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
         <v>118</v>
       </c>
       <c r="I53" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J53" t="s">
         <v>121</v>
@@ -1575,7 +1574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="B54" t="s">
         <v>40</v>
       </c>
@@ -1592,27 +1591,27 @@
         <v>98</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H54" t="s">
         <v>118</v>
       </c>
       <c r="I54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="B55" t="s">
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
         <v>64</v>
@@ -1624,22 +1623,22 @@
         <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
         <v>118</v>
       </c>
       <c r="I55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1650,13 +1649,16 @@
         <v>57</v>
       </c>
       <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
         <v>103</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="B58" t="s">
         <v>29</v>
       </c>
@@ -1664,13 +1666,16 @@
         <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="B59" t="s">
         <v>30</v>
       </c>
@@ -1678,13 +1683,16 @@
         <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="B60" t="s">
         <v>31</v>
       </c>
@@ -1692,13 +1700,16 @@
         <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="B61" t="s">
         <v>32</v>
       </c>
@@ -1706,13 +1717,16 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="B62" t="s">
         <v>33</v>
       </c>
@@ -1720,13 +1734,16 @@
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="B63" t="s">
         <v>34</v>
       </c>
@@ -1734,13 +1751,16 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="B64" t="s">
         <v>35</v>
       </c>
@@ -1748,13 +1768,16 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="B65" t="s">
         <v>43</v>
       </c>
@@ -1762,13 +1785,16 @@
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="B66" t="s">
         <v>44</v>
       </c>
@@ -1776,13 +1802,16 @@
         <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1793,67 +1822,79 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
         <v>103</v>
       </c>
-      <c r="E68" t="s">
-        <v>113</v>
-      </c>
       <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="B69" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="B70" t="s">
         <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="B71" t="s">
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1864,21 +1905,27 @@
         <v>69</v>
       </c>
       <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="B74" t="s">
         <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1892,13 +1939,13 @@
         <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F76" t="s">
         <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H76" t="s">
         <v>117</v>
@@ -1907,13 +1954,13 @@
         <v>103</v>
       </c>
       <c r="J76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="B77" t="s">
         <v>52</v>
       </c>
@@ -1936,16 +1983,16 @@
         <v>118</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="B78" t="s">
         <v>53</v>
       </c>
@@ -1968,21 +2015,21 @@
         <v>118</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K78" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="B79" t="s">
         <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
         <v>64</v>
@@ -2000,10 +2047,10 @@
         <v>118</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K79" t="s">
         <v>95</v>

--- a/examples/convert/mwtab/Saved Directives/mwtab_ms_conversion_directives.xlsx
+++ b/examples/convert/mwtab/Saved Directives/mwtab_ms_conversion_directives.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="126">
   <si>
     <t>#tags</t>
   </si>
@@ -91,12 +91,12 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Extended</t>
+  </si>
+  <si>
     <t>Metabolites</t>
   </si>
   <si>
-    <t>Extended</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
@@ -250,7 +250,7 @@
     <t>*#.exclusion_headers</t>
   </si>
   <si>
-    <t>id,intensity,intensity%type,intensity%units,assignment,entity.id,protocol.id,formula,compound,isotopologue,isotopologue%type</t>
+    <t>id,intensity,intensity%type,intensity%units,assignment,assignment%method,entity.id,protocol.id,formula,compound,isotopologue,isotopologue%type</t>
   </si>
   <si>
     <t>intensity%type</t>
@@ -319,12 +319,12 @@
     <t>"Metabolite"=assignment,entity.id=intensity</t>
   </si>
   <si>
-    <t>"Metabolite"=assignment,"formula"=formula,"compound"=compound,"isotopologue"=isotopologue,"isotopologue%type"=isotopologue%type</t>
-  </si>
-  <si>
     <t>#.fields_to_headers</t>
   </si>
   <si>
+    <t>"Metabolite"=assignment</t>
+  </si>
+  <si>
     <t>#.table</t>
   </si>
   <si>
@@ -334,6 +334,12 @@
     <t>"Metabolite"=assignment,"sample_id"=entity.id</t>
   </si>
   <si>
+    <t>*#.optional_headers</t>
+  </si>
+  <si>
+    <t>assignment%method,formula,compound,isotopologue,isotopologue%type</t>
+  </si>
+  <si>
     <t>measurement</t>
   </si>
   <si>
@@ -379,13 +385,13 @@
     <t>matrix</t>
   </si>
   <si>
+    <t>#.values_to_str</t>
+  </si>
+  <si>
     <t>type=sample_prep</t>
   </si>
   <si>
     <t>type=treatment</t>
-  </si>
-  <si>
-    <t>#.values_to_str</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,7 +771,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>94</v>
@@ -785,7 +791,7 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>95</v>
@@ -805,7 +811,7 @@
         <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
         <v>95</v>
@@ -825,7 +831,7 @@
         <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -845,7 +851,7 @@
         <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -868,7 +874,7 @@
         <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>94</v>
@@ -888,7 +894,7 @@
         <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>95</v>
@@ -908,7 +914,7 @@
         <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
@@ -928,7 +934,7 @@
         <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
@@ -948,7 +954,7 @@
         <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>95</v>
@@ -968,7 +974,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -979,7 +985,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -990,7 +996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1043,13 +1049,13 @@
         <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -1063,13 +1069,13 @@
         <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -1083,13 +1089,13 @@
         <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -1103,13 +1109,13 @@
         <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
         <v>21</v>
       </c>
@@ -1123,13 +1129,13 @@
         <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1143,13 +1149,13 @@
         <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1166,10 +1172,10 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
         <v>103</v>
@@ -1177,8 +1183,11 @@
       <c r="I31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -1195,211 +1204,221 @@
         <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
         <v>106</v>
       </c>
-      <c r="I32" t="s">
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+      <c r="I38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="G35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="E40" t="s">
         <v>103</v>
       </c>
-      <c r="J35" t="s">
+      <c r="F40" t="s">
         <v>94</v>
       </c>
-      <c r="K35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E43" t="s">
         <v>103</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
         <v>95</v>
@@ -1407,16 +1426,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="B45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
         <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
         <v>95</v>
@@ -1424,16 +1443,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
         <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
@@ -1441,16 +1460,16 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
@@ -1458,16 +1477,16 @@
     </row>
     <row r="48" spans="1:11">
       <c r="B48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
         <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -1475,16 +1494,16 @@
     </row>
     <row r="49" spans="1:11">
       <c r="B49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
         <v>95</v>
@@ -1492,218 +1511,218 @@
     </row>
     <row r="50" spans="1:11">
       <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>87</v>
       </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>88</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>57</v>
       </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" t="s">
         <v>96</v>
       </c>
-      <c r="G52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G54" t="s">
         <v>117</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H54" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" t="s">
         <v>103</v>
       </c>
-      <c r="J52" t="s">
-        <v>112</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="J54" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" t="s">
-        <v>118</v>
-      </c>
-      <c r="I53" t="s">
-        <v>104</v>
-      </c>
-      <c r="J53" t="s">
-        <v>121</v>
-      </c>
-      <c r="K53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I54" t="s">
-        <v>104</v>
-      </c>
-      <c r="J54" t="s">
-        <v>121</v>
-      </c>
-      <c r="K54" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
         <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
         <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I55" t="s">
         <v>104</v>
       </c>
       <c r="J55" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" t="s">
         <v>121</v>
       </c>
-      <c r="K55" t="s">
+      <c r="H56" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" t="s">
+        <v>104</v>
+      </c>
+      <c r="J56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
         <v>0</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>42</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>96</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>103</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F59" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
         <v>95</v>
@@ -1711,16 +1730,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="B61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
         <v>95</v>
@@ -1728,16 +1747,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
         <v>95</v>
@@ -1745,16 +1764,16 @@
     </row>
     <row r="63" spans="1:11">
       <c r="B63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
         <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -1762,16 +1781,16 @@
     </row>
     <row r="64" spans="1:11">
       <c r="B64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
         <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -1779,16 +1798,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="B65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -1796,263 +1815,297 @@
     </row>
     <row r="66" spans="1:11">
       <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
         <v>44</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>87</v>
       </c>
-      <c r="D66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>45</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>57</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>96</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>103</v>
       </c>
-      <c r="F68" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="B69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" t="s">
-        <v>116</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" t="s">
         <v>48</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>92</v>
       </c>
-      <c r="D71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" t="s">
         <v>110</v>
       </c>
-      <c r="F71" t="s">
-        <v>116</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F78" t="s">
         <v>96</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G78" t="s">
+        <v>117</v>
+      </c>
+      <c r="H78" t="s">
+        <v>119</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+      <c r="K78" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" t="s">
-        <v>108</v>
-      </c>
-      <c r="F76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" t="s">
-        <v>117</v>
-      </c>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-      <c r="J76" t="s">
-        <v>112</v>
-      </c>
-      <c r="K76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" t="s">
-        <v>63</v>
-      </c>
-      <c r="H77" t="s">
-        <v>118</v>
-      </c>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-      <c r="J77" t="s">
-        <v>122</v>
-      </c>
-      <c r="K77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" t="s">
-        <v>98</v>
-      </c>
-      <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>63</v>
-      </c>
-      <c r="H78" t="s">
-        <v>118</v>
-      </c>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-      <c r="J78" t="s">
-        <v>122</v>
-      </c>
-      <c r="K78" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="B79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
         <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G79" t="s">
         <v>63</v>
       </c>
       <c r="H79" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I79" t="s">
         <v>104</v>
       </c>
       <c r="J79" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" t="s">
+        <v>120</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+      <c r="J80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" t="s">
+        <v>120</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>125</v>
+      </c>
+      <c r="K81" t="s">
         <v>95</v>
       </c>
     </row>
